--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1168,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1185,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1202,7 +1202,7 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1219,7 +1219,7 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1236,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
